--- a/01-FatSheepCrisis/Assets/Excel/ProfessionConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/ProfessionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Project\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C871F8D2-29F0-4941-82B0-C8AC09FA3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8E40E-6988-43FC-888C-4AD722BB669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,15 +99,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圣徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold_GainRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个盗贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个狂战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个毁灭者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁锤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,10 +499,13 @@
     <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="17" width="19" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -511,8 +554,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3001</v>
       </c>
@@ -561,8 +613,17 @@
       <c r="P2" s="1">
         <v>0</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3002</v>
       </c>
@@ -611,8 +672,17 @@
       <c r="P3" s="1">
         <v>0</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3003</v>
       </c>
@@ -661,105 +731,14 @@
       <c r="P4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>300</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3005</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/01-FatSheepCrisis/Assets/Excel/ProfessionConfig.xlsx
+++ b/01-FatSheepCrisis/Assets/Excel/ProfessionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDeskTop\FatSheepCrisis\01-FatSheepCrisis\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8E40E-6988-43FC-888C-4AD722BB669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAF7DEB-893D-485A-A2C7-32765687565B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个盗贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个狂战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个毁灭者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +136,18 @@
   </si>
   <si>
     <t>铁锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武器为短剑，被动效果为初始移速提高25%，金币获取率提高50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武器为斧子，被动效果为受到15%额外伤害且每损失1%血量提高1%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武器为锤子，被动效果为初始移速降低25%，每5级提高3%伤害（MAX：30%）和3%减伤（MAX：30%）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -617,10 +617,10 @@
         <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
         <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -735,10 +735,10 @@
         <v>22</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
